--- a/Labs/Office/Excel/Labs/Lab02/Zenevich_T091_LISTS_CALCULATIONS.xlsx
+++ b/Labs/Office/Excel/Labs/Lab02/Zenevich_T091_LISTS_CALCULATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Office\Excel\Labs\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33EA02-13E3-4AC5-906C-8C93B7FEA5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852BD9C8-5451-4009-9A08-3AE32705BEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,15 +271,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2781,7 +2781,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,17 +2988,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3146,17 +3146,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,13 +3243,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3610,15 +3610,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3667,13 +3667,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3783,7 +3783,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,46 +3799,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <f>MIN(D2:D30)</f>
         <v>0.49263938490967019</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>1E-4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <f>D30</f>
         <v>0.49493427198018436</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <f>ABS(E1-I1)</f>
         <v>2.2948870705141733E-3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <f>K1/I1</f>
         <v>4.6367511817933952E-3</v>
       </c>
@@ -4343,7 +4343,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4355,48 +4355,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <f>MIN(D2:D30)</f>
-        <v>5.1548451529180701</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>126.85065444473867</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>1E-4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <f>D30</f>
-        <v>5.1548454853771366</v>
-      </c>
-      <c r="J1" s="4" t="s">
+        <v>126.85065507987038</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <f>ABS(E1-I1)</f>
-        <v>3.3245906649881363E-7</v>
-      </c>
-      <c r="L1" s="4" t="s">
+        <v>6.3513171255635825E-7</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="5">
         <f>K1/I1</f>
-        <v>6.4494477563276637E-8</v>
+        <v>5.0069249713882303E-9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4417,12 +4417,12 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B31" si="0">(1+A3^2)/FACT(A3)</f>
-        <v>1.6666666666666667</v>
+        <f>(A3^4)/FACT(A3-1)</f>
+        <v>40.5</v>
       </c>
       <c r="C3">
         <f>C2+B3</f>
-        <v>4.166666666666667</v>
+        <v>43</v>
       </c>
       <c r="D3" t="str">
         <f>IF(ABS(B2-B3)&lt;$G$1,C3,"")</f>
@@ -4434,12 +4434,12 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <f t="shared" ref="B4:B31" si="0">(A4^4)/FACT(A4-1)</f>
+        <v>42.666666666666664</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C31" si="1">C3+B4</f>
-        <v>4.875</v>
+        <v>85.666666666666657</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D31" si="2">IF(ABS(B3-B4)&lt;$G$1,C4,"")</f>
@@ -4452,11 +4452,11 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>26.041666666666668</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>5.0916666666666668</v>
+        <v>111.70833333333333</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
@@ -4469,11 +4469,11 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>5.1388888888888887E-2</v>
+        <v>10.8</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>5.1430555555555557</v>
+        <v>122.50833333333333</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
@@ -4486,11 +4486,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>9.9206349206349201E-3</v>
+        <v>3.3347222222222221</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>5.152976190476191</v>
+        <v>125.84305555555555</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1.6121031746031745E-3</v>
+        <v>0.8126984126984127</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>5.1545882936507939</v>
+        <v>126.65575396825396</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>2.259700176366843E-4</v>
+        <v>0.16272321428571429</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>5.1548142636684302</v>
+        <v>126.81847718253968</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
@@ -4537,11 +4537,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2.783289241622575E-5</v>
+        <v>2.7557319223985889E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>5.1548420965608468</v>
+        <v>126.84603450176367</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
@@ -4554,15 +4554,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>3.0563572230238897E-6</v>
+        <v>4.0346671075837739E-3</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>5.1548451529180701</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>5.1548451529180701</v>
+        <v>126.85006916887126</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4571,15 +4571,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>3.0271297632408744E-7</v>
+        <v>5.1948051948051948E-4</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>5.1548454556310466</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>5.1548454556310466</v>
+        <v>126.85058864939074</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4588,15 +4588,15 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>2.7300374522596746E-8</v>
+        <v>5.9626105633050079E-5</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>5.154845482931421</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>5.154845482931421</v>
+        <v>126.85064827549638</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4605,15 +4605,15 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>2.2597368827527558E-9</v>
+        <v>6.1692422803533917E-6</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>5.1548454851911583</v>
+        <v>126.85065444473867</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>5.1548454851911583</v>
+        <v>126.85065444473867</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4622,15 +4622,15 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1.7282590033912784E-10</v>
+        <v>5.8070649588506733E-7</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>5.1548454853639845</v>
+        <v>126.85065502544516</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>5.1548454853639845</v>
+        <v>126.85065502544516</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4639,15 +4639,15 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.228325674423558E-11</v>
+        <v>5.0116452232854349E-8</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>5.154845485376268</v>
+        <v>126.85065507556162</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>5.154845485376268</v>
+        <v>126.85065507556162</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4656,15 +4656,15 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>8.1532260376020099E-13</v>
+        <v>3.9918672627832684E-9</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>5.1548454853770833</v>
+        <v>126.85065507955349</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>5.1548454853770833</v>
+        <v>126.85065507955349</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,15 +4673,15 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5.0762422647905234E-14</v>
+        <v>2.9513553673217539E-10</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>5.1548454853771339</v>
+        <v>126.85065507984862</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>5.1548454853771339</v>
+        <v>126.85065507984862</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,15 +4690,15 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>2.9758699592780073E-15</v>
+        <v>2.0355106713531257E-11</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507986897</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507986897</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,15 +4707,15 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1.6482373669481781E-16</v>
+        <v>1.3153016394598928E-12</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987029</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987029</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,15 +4724,15 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>8.6512399500189374E-18</v>
+        <v>7.9937868169937316E-14</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,15 +4741,15 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>4.3149438253385278E-19</v>
+        <v>4.5850788817457833E-15</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,15 +4758,15 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>2.0501301904342623E-20</v>
+        <v>2.4896870000547609E-16</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,15 +4775,15 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>9.2997257852246033E-22</v>
+        <v>1.2833660265311657E-17</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,15 +4792,15 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>4.0357908780246807E-23</v>
+        <v>6.2958498870942127E-19</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,15 +4809,15 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1.6786866702031876E-24</v>
+        <v>2.9461015531568793E-20</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4826,15 +4826,15 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>6.7040936005707484E-26</v>
+        <v>1.3177591177244493E-21</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,15 +4843,15 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>2.5747130510998231E-27</v>
+        <v>5.6448100769211158E-23</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,15 +4860,15 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>9.5229887503889784E-29</v>
+        <v>2.3198033394839923E-24</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,15 +4877,15 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>3.3967588535631302E-30</v>
+        <v>9.1610699380226522E-26</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4894,15 +4894,15 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1.1699122899744842E-31</v>
+        <v>3.4816627449516937E-27</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>5.1548454853771366</v>
+        <v>126.85065507987038</v>
       </c>
     </row>
   </sheetData>
